--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688098.535794738</v>
+        <v>1763628.205459544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>325.0967979665126</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>115.8126365492376</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.08467608327366</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>5.231558583630922</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>27.78560849791181</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>135.8442372525923</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>213.6113417665673</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>183.2937801090606</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>111.1023876523963</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.07258834110962</v>
+        <v>120.2570633735997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634776</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.73861908745423</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>140.5678108961685</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.7791350527408</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.7406709917014</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>151.5611006472033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>88.86494278824905</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.1159586989432</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>122.3137095599312</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>138.3863005245268</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.12580423843965</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>17.96449086431781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.524736141320318e-12</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.63458695168155</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.14294045584698</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.47617960322198</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>106.9382760718155</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.45940450219576</v>
+        <v>109.97772863073</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>9.1524075981136</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>110.8980206704191</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>98.1797470077187</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.737983561872</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>946.7754666214607</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>946.7754666214607</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>946.7754666214607</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>535.7895618318532</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2348.96045270204</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>702.7909275566628</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>554.6442689908469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>554.6442689908469</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>554.6442689908469</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U4" t="n">
-        <v>554.6442689908469</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="V4" t="n">
-        <v>554.6442689908469</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="W4" t="n">
-        <v>554.6442689908469</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>2250.268077895259</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.153685885794</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.153685885794</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1238.153685885794</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1238.153685885794</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>827.1677810961867</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>409.2039729943735</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>82.00925303037639</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925728</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949916</v>
+        <v>2504.904000283471</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694737</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2335.826370898998</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.492445258345</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.739153672332</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C10" t="n">
-        <v>229.739153672332</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D10" t="n">
-        <v>229.739153672332</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="E10" t="n">
-        <v>229.739153672332</v>
+        <v>175.4147630058187</v>
       </c>
       <c r="F10" t="n">
-        <v>229.739153672332</v>
+        <v>175.4147630058187</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>229.739153672332</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>229.739153672332</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>229.739153672332</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>229.739153672332</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>223.1552313137099</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>634.0455001582225</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>880.8106280646864</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141287</v>
+        <v>1188.130761344648</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.274692278279</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.4504516500519</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C13" t="n">
-        <v>720.4504516500519</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471189</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500519</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X13" t="n">
-        <v>720.4504516500519</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.4504516500519</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,10 +5299,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>537.2200865194187</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>368.2839035915118</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>218.1672641791761</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5442,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1345.824249702141</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1345.824249702141</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>1056.695610915699</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609662</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609662</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0126656629488</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.2200865194187</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>673.9335914287639</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C19" t="n">
-        <v>673.9335914287639</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>186.9796599332647</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>186.9796599332647</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1368.49611025594</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1144.710695045445</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>855.5820562590036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>855.5820562590036</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>855.5820562590036</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>855.5820562590036</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.5820562590036</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,19 +5755,19 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.6859735286132</v>
+        <v>4186.28990233721</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6859735286132</v>
+        <v>4186.28990233721</v>
       </c>
       <c r="D22" t="n">
-        <v>515.5693341162774</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6562405338843</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>220.766293035974</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4186.28990233721</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>4186.28990233721</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>4186.28990233721</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>4186.28990233721</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>4186.28990233721</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.3809108364826</v>
+        <v>738.7219969042557</v>
       </c>
       <c r="C25" t="n">
-        <v>692.3809108364826</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>692.3809108364826</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6187,10 +6189,10 @@
         <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3809108364826</v>
+        <v>920.3704617344954</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6208,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861031</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383442</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383442</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X28" t="n">
-        <v>447.0175521403269</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0175521403269</v>
+        <v>599.7337779135435</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>3617.986260256746</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1211.646584106564</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>922.517945320122</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V31" t="n">
-        <v>667.8334571142351</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W31" t="n">
-        <v>667.8334571142351</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X31" t="n">
-        <v>667.8334571142351</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>3799.634725086986</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4039.399954839299</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>4039.399954839299</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
         <v>4411.546387431056</v>
@@ -6880,28 +6882,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4441.840998813069</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>4441.840998813069</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V34" t="n">
-        <v>4441.840998813069</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W34" t="n">
-        <v>4441.840998813069</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X34" t="n">
-        <v>4441.840998813069</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y34" t="n">
-        <v>4221.048419669539</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6940,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.03077229167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.613602254709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7168,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4412.072442972745</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="C40" t="n">
-        <v>4243.136260044838</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507267</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924874</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014292</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W40" t="n">
-        <v>4860.854573014292</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X40" t="n">
-        <v>4632.865022116275</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y40" t="n">
-        <v>4412.072442972745</v>
+        <v>933.2366688293931</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7454,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7606,13 +7608,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.107328986838</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.7003690904323</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C46" t="n">
-        <v>562.7003690904323</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>852.117539127393</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>852.117539127393</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>562.7003690904323</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>562.7003690904323</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>562.7003690904323</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>85.30006332127934</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.23759968302153</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503179</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8768539307581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>145.6695415024088</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>26.69329165486782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>46.35970933639999</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.55610523468219</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>68.80485128466006</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.17985890344634</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>147.8510518740506</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>139.1210168601882</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.4694717822514</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.1973932302558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>109.4725325623654</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>10.00426342195823</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>135.0713814551673</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>114.6092849865738</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>90.1560685160166</v>
+        <v>38.63774438748231</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>158.0944135005142</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>175.3393317281583</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.4049063443761</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.775362162</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852507</v>
@@ -26335,25 +26337,25 @@
         <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="O2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753049</v>
+        <v>-328118.9440753051</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392398</v>
       </c>
       <c r="D6" t="n">
         <v>261848.9351392395</v>
@@ -26534,34 +26536,34 @@
         <v>369330.8140805266</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805264</v>
+        <v>369330.8140805261</v>
       </c>
       <c r="H6" t="n">
         <v>369330.8140805264</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805261</v>
+        <v>369330.8140805262</v>
       </c>
       <c r="J6" t="n">
         <v>192907.5948879333</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805263</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466892</v>
+        <v>234529.7988466894</v>
       </c>
       <c r="N6" t="n">
-        <v>369330.8140805262</v>
+        <v>369330.8140805263</v>
       </c>
       <c r="O6" t="n">
         <v>369330.8140805264</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805265</v>
+        <v>369330.8140805264</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>88.68737205428238</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>135.4115309590517</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.038073871640645</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3530947684639</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>124.1457077469494</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>80.60408310506554</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>12.0983136224699</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>163.8827376991428</v>
       </c>
     </row>
     <row r="8">
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>67.93038739922872</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>258.6287130260728</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.2372139179413</v>
+        <v>47.05273888545121</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29262,7 +29264,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
     </row>
     <row r="26">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
@@ -31765,16 +31767,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946991</v>
@@ -31789,7 +31791,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354892</v>
@@ -31835,25 +31837,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458548</v>
@@ -31862,13 +31864,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,19 +31916,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
@@ -31935,22 +31937,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -32002,16 +32004,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946991</v>
@@ -32026,7 +32028,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354892</v>
@@ -32072,25 +32074,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458548</v>
@@ -32099,13 +32101,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,19 +32153,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
@@ -32172,22 +32174,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>127.210242276186</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560242</v>
@@ -35498,19 +35500,19 @@
         <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>373.6013019241296</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.987089538257</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763628.205459544</v>
+        <v>1756611.190567832</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>142.2197563375535</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>115.8126365492376</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.68001987778678</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.231558583630922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>135.8442372525923</v>
+        <v>136.9524318238182</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.70191565295202</v>
+        <v>147.3627673269532</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>183.2937801090606</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>120.2570633735997</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.841492062620977</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>140.5678108961685</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>137.8531363710938</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>151.5611006472033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>88.86494278824905</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>28.12580423844427</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.991670285228613</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>138.3863005245268</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>28.12580423843965</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.524736141320318e-12</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>39.14294045584698</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675401</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>107.2487026146549</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467007</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>119.7071605086442</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>109.97772863073</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>9.1524075981136</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.1797470077187</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.158393318536</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>615.5631094550599</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>197.5993013532468</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>197.5993013532468</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2348.96045270204</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2017.897565358469</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2017.897565358469</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>2017.897565358469</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1627.758233382657</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2068.619613065019</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.619613065019</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2255.552480504987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>2255.552480504987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>2255.552480504987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>2255.552480504987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>2255.552480504987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>2250.268077895259</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2504.904000283471</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="U5" t="n">
-        <v>2504.904000283471</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="V5" t="n">
-        <v>2504.904000283471</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W5" t="n">
-        <v>2504.904000283471</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X5" t="n">
-        <v>2504.904000283471</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.904000283471</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,31 +4664,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>579.2777040781987</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2335.826370898998</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2004.763483555427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2004.763483555427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1631.297725294347</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.158393318536</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>323.3278565882118</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>175.4147630058187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>175.4147630058187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>223.1552313137099</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>634.0455001582225</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646864</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344648</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.1480540508779</v>
+        <v>734.0220331715251</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508779</v>
+        <v>565.0858502436182</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>822.1480540508779</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>822.1480540508779</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>822.1480540508779</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X13" t="n">
-        <v>822.1480540508779</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.1480540508779</v>
+        <v>734.0220331715251</v>
       </c>
     </row>
     <row r="14">
@@ -5275,52 +5275,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555226</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619865</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.623401105981</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>383.3526312522304</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>383.3526312522304</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>383.3526312522304</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1345.824249702141</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1345.824249702141</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1056.695610915699</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>802.0111227098126</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W16" t="n">
-        <v>802.0111227098126</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X16" t="n">
-        <v>802.0111227098126</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.2185435662825</v>
+        <v>565.0010960824701</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0324822735073</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C19" t="n">
-        <v>337.0962993456004</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>186.9796599332647</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>186.9796599332647</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1470.506367286747</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1181.377728500305</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1181.377728500305</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4186.28990233721</v>
+        <v>418.0853130833037</v>
       </c>
       <c r="C22" t="n">
-        <v>4186.28990233721</v>
+        <v>249.1491301553968</v>
       </c>
       <c r="D22" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4186.28990233721</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>4186.28990233721</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>4186.28990233721</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X22" t="n">
-        <v>4186.28990233721</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y22" t="n">
-        <v>4186.28990233721</v>
+        <v>599.7337779135435</v>
       </c>
     </row>
     <row r="23">
@@ -5965,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6034,7 +6034,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>738.7219969042557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.3704617344954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>599.7337779135435</v>
+        <v>677.4616523829142</v>
       </c>
       <c r="C28" t="n">
-        <v>599.7337779135435</v>
+        <v>677.4616523829142</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>527.3450129705784</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705784</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705784</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290399</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1390.584247714817</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1190.664237630369</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>966.8788224198747</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>966.8788224198747</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>966.8788224198747</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570736</v>
+        <v>677.4616523829142</v>
       </c>
       <c r="X28" t="n">
-        <v>820.5263570570736</v>
+        <v>677.4616523829142</v>
       </c>
       <c r="Y28" t="n">
-        <v>599.7337779135435</v>
+        <v>677.4616523829142</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3617.986260256746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.039182201071</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995184</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958223</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060206</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,13 +6973,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7137,10 +7137,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>933.2366688293931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>981.5095496229244</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.5095496229244</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>85.30006332127934</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503179</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>182.034074286795</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>143.7739809555914</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>145.6695415024088</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>8.580826275475374</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>46.35970933639999</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>56.55610523468219</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>193.421756819945</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.6238027329837</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>147.8510518740506</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>139.1210168601882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>109.4725325623654</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>2.715649789137942</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>10.00426342195823</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518767</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>98.87749284345058</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>38.63774438748231</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>158.0944135005142</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.4049063443761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.775362162</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852507</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852505</v>
@@ -26349,13 +26349,13 @@
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
@@ -26453,13 +26453,13 @@
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753051</v>
+        <v>-328118.9440753049</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392398</v>
+        <v>261848.9351392397</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963693</v>
+        <v>-156803.813656092</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805266</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805261</v>
+        <v>368356.2228208049</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805262</v>
+        <v>368356.2228208045</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879333</v>
+        <v>191933.0036282117</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805263</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466894</v>
+        <v>233555.2075869675</v>
       </c>
       <c r="N6" t="n">
-        <v>369330.8140805263</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208049</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208047</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>9.711559907307731</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>135.4115309590517</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>125.6297823812641</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.3530947684639</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>80.60408310506554</v>
+        <v>79.49588853383958</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8827376991428</v>
+        <v>71.2218860251416</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,16 +27903,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>67.93038739922872</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>47.05273888545121</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29264,7 +29264,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.210242276186</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>384.987089538257</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>389.1274892183196</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1756611.190567832</v>
+        <v>1761550.453416864</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>67.45919842054251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142.2197563375535</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>41.68001987778678</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>4.726971031682526</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>39.49951815376878</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>136.9524318238182</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>147.3627673269532</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>133.506578239346</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.03250833503019</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.841492062620977</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>137.8531363710938</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>204.684450171242</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>71.03759657939766</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>28.12580423844427</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.991670285228613</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>86.68373630341851</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>122.65197883716</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>71.57174154551466</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675401</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.2487026146549</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>139.0551504791174</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.7071605086442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>282.3538923543357</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663234</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4312,37 +4312,37 @@
         <v>1026.549014244667</v>
       </c>
       <c r="D2" t="n">
-        <v>1026.549014244667</v>
+        <v>668.283315637917</v>
       </c>
       <c r="E2" t="n">
-        <v>1026.549014244667</v>
+        <v>282.4950630396727</v>
       </c>
       <c r="F2" t="n">
-        <v>615.5631094550599</v>
+        <v>275.5495622904693</v>
       </c>
       <c r="G2" t="n">
-        <v>197.5993013532468</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>197.5993013532468</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477204</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="E4" t="n">
-        <v>400.6823320653273</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F4" t="n">
-        <v>253.7923845674169</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>723.3542659926137</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2657.250587832597</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.607124141857</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.607124141857</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.607124141857</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.607124141857</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.141365880777</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.2777040781987</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>946.7754666214612</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>588.5097680147107</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>202.7215154164665</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785277</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785277</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>411.2797076961346</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982242</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655658</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655658</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655658</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.0220331715251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>565.0858502436182</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150552</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150552</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.3526312522304</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C16" t="n">
-        <v>383.3526312522304</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3526312522304</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1181.089197249786</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262961</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.210845262961</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752260002</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="X16" t="n">
-        <v>785.7936752260002</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.0010960824701</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.3120936331045</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>337.1475612004629</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>168.9722395202835</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1470.506367286747</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.377728500305</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1181.377728500305</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>891.9605584633442</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>891.9605584633442</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.9605584633442</v>
+        <v>665.685973528613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418.0853130833037</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>249.1491301553968</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570736</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X22" t="n">
-        <v>820.5263570570736</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y22" t="n">
-        <v>599.7337779135435</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5980,28 +5980,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>677.4616523829142</v>
+        <v>488.8659712700622</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4616523829142</v>
+        <v>319.9297883421553</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290399</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1390.584247714817</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1190.664237630369</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>966.8788224198747</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>966.8788224198747</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>966.8788224198747</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>677.4616523829142</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X28" t="n">
-        <v>677.4616523829142</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y28" t="n">
-        <v>677.4616523829142</v>
+        <v>670.514436100302</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,25 +6700,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>861.4909633328887</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>692.5547804049818</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>542.438140992646</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>1164.055751909234</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.055751909234</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y34" t="n">
-        <v>1043.139428163128</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1013.790308600388</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>759.1058203945014</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>759.1058203945014</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>759.1058203945014</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>538.3132412509713</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823807</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.117678709276</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028587</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720758</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>143.7739809555914</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.580826275475374</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>16.86311088714729</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>77.87623178813847</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,13 +23943,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>193.421756819945</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>143.6238027329837</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>199.5536160951588</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518772</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.0437314726977</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.715649789137942</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>86.65450490991978</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.87749284345058</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3.883460044241644</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401838</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852508</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852505</v>
@@ -26352,7 +26352,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852505</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
@@ -26453,13 +26453,13 @@
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007488</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753049</v>
+        <v>-328118.944075305</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392397</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392396</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="E6" t="n">
-        <v>-156803.813656092</v>
+        <v>-155926.6815223419</v>
       </c>
       <c r="F6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545547</v>
       </c>
       <c r="G6" t="n">
-        <v>368356.2228208049</v>
+        <v>369233.3549545544</v>
       </c>
       <c r="H6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545538</v>
       </c>
       <c r="I6" t="n">
-        <v>368356.2228208045</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="J6" t="n">
-        <v>191933.0036282117</v>
+        <v>192810.1357619612</v>
       </c>
       <c r="K6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="L6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="M6" t="n">
-        <v>233555.2075869675</v>
+        <v>234432.3397207171</v>
       </c>
       <c r="N6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="O6" t="n">
-        <v>368356.2228208049</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="P6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>346.3249716002525</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>9.711559907307731</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>125.6297823812641</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>24.39577892323177</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.97888442104293</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>79.49588853383958</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.2218860251416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>273.3694675023654</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>4.167450853506786</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415099</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
